--- a/result.xlsx
+++ b/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
     <t>Generation</t>
   </si>
@@ -59,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -69,14 +69,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,37 +111,37 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -130,25 +150,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C2">
-        <v>3.0895122397121368</v>
+        <v>0.95352943672216817</v>
       </c>
       <c r="D2">
-        <v>2.8982535834871759</v>
+        <v>0.91916650676483314</v>
       </c>
       <c r="E2">
-        <v>3.1107394712884457</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F2">
-        <v>2.9651738685799849</v>
+        <v>0.91858201762451275</v>
       </c>
       <c r="G2">
-        <v>3.10645301489815</v>
+        <v>0.94605860268880271</v>
       </c>
       <c r="H2">
-        <v>2.9780058760494956</v>
+        <v>0.92350546878680961</v>
       </c>
     </row>
     <row r="3">
@@ -156,25 +176,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C3">
-        <v>3.0895122397121368</v>
+        <v>0.95352943672216817</v>
       </c>
       <c r="D3">
-        <v>2.8720107401674277</v>
+        <v>0.90906316604924398</v>
       </c>
       <c r="E3">
-        <v>3.1107394712884457</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F3">
-        <v>3.0132650347138097</v>
+        <v>0.9209441948582503</v>
       </c>
       <c r="G3">
-        <v>3.10645301489815</v>
+        <v>0.94794684714183153</v>
       </c>
       <c r="H3">
-        <v>3.0231157692422674</v>
+        <v>0.92584072422667474</v>
       </c>
     </row>
     <row r="4">
@@ -182,25 +202,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C4">
-        <v>3.0895122397121368</v>
+        <v>0.95352943672216817</v>
       </c>
       <c r="D4">
-        <v>2.8607417794964625</v>
+        <v>0.91561453047463548</v>
       </c>
       <c r="E4">
-        <v>3.1107394712884457</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F4">
-        <v>3.0109553483168598</v>
+        <v>0.92465686585907736</v>
       </c>
       <c r="G4">
-        <v>3.10645301489815</v>
+        <v>0.94794684714183153</v>
       </c>
       <c r="H4">
-        <v>3.0314685295224235</v>
+        <v>0.92783574575781513</v>
       </c>
     </row>
     <row r="5">
@@ -208,25 +228,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C5">
-        <v>3.0895122397121368</v>
+        <v>0.95352943672216817</v>
       </c>
       <c r="D5">
-        <v>2.8524294387242897</v>
+        <v>0.91434169067950188</v>
       </c>
       <c r="E5">
-        <v>3.1114498499938628</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F5">
-        <v>3.0452139891648513</v>
+        <v>0.92986999246669566</v>
       </c>
       <c r="G5">
-        <v>3.10645301489815</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H5">
-        <v>3.0089975580132329</v>
+        <v>0.93132351109968414</v>
       </c>
     </row>
     <row r="6">
@@ -234,25 +254,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C6">
-        <v>3.0895122397121368</v>
+        <v>0.95352943672216817</v>
       </c>
       <c r="D6">
-        <v>2.9218836684585012</v>
+        <v>0.91546138432913471</v>
       </c>
       <c r="E6">
-        <v>3.1121605532222278</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F6">
-        <v>3.0680907948971163</v>
+        <v>0.92295195523420459</v>
       </c>
       <c r="G6">
-        <v>3.1126626830295629</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H6">
-        <v>3.0589674032007541</v>
+        <v>0.92922008913356446</v>
       </c>
     </row>
     <row r="7">
@@ -260,25 +280,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C7">
-        <v>3.0895122397121368</v>
+        <v>0.95352943672216817</v>
       </c>
       <c r="D7">
-        <v>2.9720409061231909</v>
+        <v>0.91669259604660336</v>
       </c>
       <c r="E7">
-        <v>3.1121605532222278</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F7">
-        <v>3.0827213685271313</v>
+        <v>0.92586871035608487</v>
       </c>
       <c r="G7">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H7">
-        <v>3.0746083743632791</v>
+        <v>0.93055277612958331</v>
       </c>
     </row>
     <row r="8">
@@ -286,25 +306,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C8">
-        <v>3.0895122397121368</v>
+        <v>0.95451767083677042</v>
       </c>
       <c r="D8">
-        <v>2.9039240106161825</v>
+        <v>0.91949941912754685</v>
       </c>
       <c r="E8">
-        <v>3.1121605532222278</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F8">
-        <v>3.0872317424541595</v>
+        <v>0.92311698222744665</v>
       </c>
       <c r="G8">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H8">
-        <v>3.0798860843487779</v>
+        <v>0.92776687043325912</v>
       </c>
     </row>
     <row r="9">
@@ -312,25 +332,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C9">
-        <v>3.0895122397121368</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D9">
-        <v>2.8777376306327302</v>
+        <v>0.92050423454783681</v>
       </c>
       <c r="E9">
-        <v>3.1121605532222278</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F9">
-        <v>3.0950476969769056</v>
+        <v>0.9221572861581484</v>
       </c>
       <c r="G9">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H9">
-        <v>3.0797864987191836</v>
+        <v>0.93038319971483308</v>
       </c>
     </row>
     <row r="10">
@@ -338,25 +358,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C10">
-        <v>3.0895122397121368</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D10">
-        <v>2.9381718422806773</v>
+        <v>0.92101062888498542</v>
       </c>
       <c r="E10">
-        <v>3.1146950742097537</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F10">
-        <v>3.0955760545652655</v>
+        <v>0.9293311971927426</v>
       </c>
       <c r="G10">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H10">
-        <v>3.0799984460920444</v>
+        <v>0.92932873433062302</v>
       </c>
     </row>
     <row r="11">
@@ -364,25 +384,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C11">
-        <v>3.0895122397121368</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D11">
-        <v>2.9675086484402597</v>
+        <v>0.92039288653829066</v>
       </c>
       <c r="E11">
-        <v>3.1146950742097537</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F11">
-        <v>3.0975584809727867</v>
+        <v>0.9307771529815011</v>
       </c>
       <c r="G11">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H11">
-        <v>3.0569153994758005</v>
+        <v>0.93071232660501435</v>
       </c>
     </row>
     <row r="12">
@@ -390,25 +410,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C12">
-        <v>3.0895122397121368</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D12">
-        <v>2.9828237300405309</v>
+        <v>0.91964396581515084</v>
       </c>
       <c r="E12">
-        <v>3.1146950742097537</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F12">
-        <v>3.0964647013485189</v>
+        <v>0.92945271981662647</v>
       </c>
       <c r="G12">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H12">
-        <v>3.0731712286990609</v>
+        <v>0.92990436985784752</v>
       </c>
     </row>
     <row r="13">
@@ -416,25 +436,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C13">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D13">
-        <v>2.9897135344408996</v>
+        <v>0.92045022358155493</v>
       </c>
       <c r="E13">
-        <v>3.1146950742097537</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F13">
-        <v>3.0940911029196689</v>
+        <v>0.92823358920977928</v>
       </c>
       <c r="G13">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H13">
-        <v>3.0790395954836085</v>
+        <v>0.93567714743714514</v>
       </c>
     </row>
     <row r="14">
@@ -442,25 +462,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C14">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D14">
-        <v>2.9735188012650697</v>
+        <v>0.92740643629319341</v>
       </c>
       <c r="E14">
-        <v>3.1146950742097537</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F14">
-        <v>3.095634125325629</v>
+        <v>0.92851012077913908</v>
       </c>
       <c r="G14">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H14">
-        <v>3.0807276167632294</v>
+        <v>0.93603747806812065</v>
       </c>
     </row>
     <row r="15">
@@ -468,25 +488,25 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C15">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D15">
-        <v>2.9686644622214806</v>
+        <v>0.93001205427187339</v>
       </c>
       <c r="E15">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F15">
-        <v>3.0977215543026979</v>
+        <v>0.93504489791795864</v>
       </c>
       <c r="G15">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H15">
-        <v>3.0817478671404355</v>
+        <v>0.93514507852873219</v>
       </c>
     </row>
     <row r="16">
@@ -494,25 +514,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C16">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D16">
-        <v>2.997853796958633</v>
+        <v>0.93116229244949578</v>
       </c>
       <c r="E16">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F16">
-        <v>3.0970964340050169</v>
+        <v>0.93131872633529045</v>
       </c>
       <c r="G16">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H16">
-        <v>3.0816570926271885</v>
+        <v>0.93541453049972778</v>
       </c>
     </row>
     <row r="17">
@@ -520,25 +540,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C17">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D17">
-        <v>3.0105881030627728</v>
+        <v>0.93193150767387589</v>
       </c>
       <c r="E17">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F17">
-        <v>3.095263202783284</v>
+        <v>0.92736312438548818</v>
       </c>
       <c r="G17">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H17">
-        <v>3.0829006755679615</v>
+        <v>0.93590623518480454</v>
       </c>
     </row>
     <row r="18">
@@ -546,25 +566,25 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C18">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D18">
-        <v>3.0086979467449249</v>
+        <v>0.92663649570581608</v>
       </c>
       <c r="E18">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F18">
-        <v>3.0969295468097395</v>
+        <v>0.93130322935670928</v>
       </c>
       <c r="G18">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H18">
-        <v>3.0840458736989631</v>
+        <v>0.93426364759045866</v>
       </c>
     </row>
     <row r="19">
@@ -572,25 +592,25 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C19">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D19">
-        <v>3.0053459178655886</v>
+        <v>0.93022564514192807</v>
       </c>
       <c r="E19">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F19">
-        <v>3.0957858124208557</v>
+        <v>0.93090594213508593</v>
       </c>
       <c r="G19">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H19">
-        <v>3.082586288181226</v>
+        <v>0.9387334406383171</v>
       </c>
     </row>
     <row r="20">
@@ -598,25 +618,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C20">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D20">
-        <v>3.0173963366564185</v>
+        <v>0.92657516921144745</v>
       </c>
       <c r="E20">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F20">
-        <v>3.0957356211979983</v>
+        <v>0.92887241732218173</v>
       </c>
       <c r="G20">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H20">
-        <v>3.0833099486622335</v>
+        <v>0.93574824313248584</v>
       </c>
     </row>
     <row r="21">
@@ -624,25 +644,25 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C21">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D21">
-        <v>3.0165455846442781</v>
+        <v>0.92459115232923383</v>
       </c>
       <c r="E21">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F21">
-        <v>3.0961689294153221</v>
+        <v>0.92824617558607314</v>
       </c>
       <c r="G21">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H21">
-        <v>3.0822952358788767</v>
+        <v>0.93430234484036134</v>
       </c>
     </row>
     <row r="22">
@@ -650,25 +670,25 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C22">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D22">
-        <v>3.0287641831987493</v>
+        <v>0.92579928083025176</v>
       </c>
       <c r="E22">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F22">
-        <v>3.0953232652414364</v>
+        <v>0.9271437907087271</v>
       </c>
       <c r="G22">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H22">
-        <v>3.0820639406250119</v>
+        <v>0.93594662355870495</v>
       </c>
     </row>
     <row r="23">
@@ -676,25 +696,25 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C23">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D23">
-        <v>3.0328866609871712</v>
+        <v>0.92777235990425733</v>
       </c>
       <c r="E23">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F23">
-        <v>3.0966435827056737</v>
+        <v>0.93089856900101464</v>
       </c>
       <c r="G23">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H23">
-        <v>3.0823669456134279</v>
+        <v>0.93544939513938141</v>
       </c>
     </row>
     <row r="24">
@@ -702,25 +722,25 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C24">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D24">
-        <v>3.0345837488810243</v>
+        <v>0.92747421419422904</v>
       </c>
       <c r="E24">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F24">
-        <v>3.0967378356224198</v>
+        <v>0.93048351757011616</v>
       </c>
       <c r="G24">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H24">
-        <v>3.0838103856636456</v>
+        <v>0.93562907232435077</v>
       </c>
     </row>
     <row r="25">
@@ -728,25 +748,25 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C25">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D25">
-        <v>3.0363115491201969</v>
+        <v>0.92165756067644888</v>
       </c>
       <c r="E25">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F25">
-        <v>3.0949704086278222</v>
+        <v>0.93307188712578482</v>
       </c>
       <c r="G25">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H25">
-        <v>3.0835359590335325</v>
+        <v>0.93673529320786375</v>
       </c>
     </row>
     <row r="26">
@@ -754,25 +774,25 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C26">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D26">
-        <v>3.035265241947855</v>
+        <v>0.92599811816980959</v>
       </c>
       <c r="E26">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F26">
-        <v>3.0940334214505314</v>
+        <v>0.93232385222198233</v>
       </c>
       <c r="G26">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H26">
-        <v>3.083585421893186</v>
+        <v>0.93343767794932619</v>
       </c>
     </row>
     <row r="27">
@@ -780,25 +800,25 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C27">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D27">
-        <v>3.0343236112440586</v>
+        <v>0.92864903235940011</v>
       </c>
       <c r="E27">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F27">
-        <v>3.0938602250524498</v>
+        <v>0.93316408691206842</v>
       </c>
       <c r="G27">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H27">
-        <v>3.0832916585865071</v>
+        <v>0.93898785888454128</v>
       </c>
     </row>
     <row r="28">
@@ -806,25 +826,25 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C28">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D28">
-        <v>3.0343779787755589</v>
+        <v>0.92857588662400148</v>
       </c>
       <c r="E28">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F28">
-        <v>3.0966020721879626</v>
+        <v>0.93346842716560008</v>
       </c>
       <c r="G28">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H28">
-        <v>3.0812189994845629</v>
+        <v>0.93653731473721735</v>
       </c>
     </row>
     <row r="29">
@@ -832,25 +852,25 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C29">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D29">
-        <v>3.0319415180730771</v>
+        <v>0.92562856258369097</v>
       </c>
       <c r="E29">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F29">
-        <v>3.0869364642857784</v>
+        <v>0.93455376363020182</v>
       </c>
       <c r="G29">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H29">
-        <v>3.0822898976505373</v>
+        <v>0.93275166633669482</v>
       </c>
     </row>
     <row r="30">
@@ -858,25 +878,25 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C30">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D30">
-        <v>3.0356864314038665</v>
+        <v>0.92230479087624062</v>
       </c>
       <c r="E30">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F30">
-        <v>3.0952823162306351</v>
+        <v>0.93017067222915284</v>
       </c>
       <c r="G30">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H30">
-        <v>3.0835915094401489</v>
+        <v>0.93226255264441771</v>
       </c>
     </row>
     <row r="31">
@@ -884,25 +904,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C31">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D31">
-        <v>3.0365180338957534</v>
+        <v>0.92132959966040884</v>
       </c>
       <c r="E31">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F31">
-        <v>3.0980126362125149</v>
+        <v>0.92385110633164691</v>
       </c>
       <c r="G31">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H31">
-        <v>3.0840040228059808</v>
+        <v>0.93231719751293751</v>
       </c>
     </row>
     <row r="32">
@@ -910,25 +930,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C32">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D32">
-        <v>3.0349243197545035</v>
+        <v>0.92054400542025261</v>
       </c>
       <c r="E32">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F32">
-        <v>3.0986167762382042</v>
+        <v>0.92685138240961717</v>
       </c>
       <c r="G32">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H32">
-        <v>3.0841193116448427</v>
+        <v>0.93830731187788374</v>
       </c>
     </row>
     <row r="33">
@@ -936,25 +956,25 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C33">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D33">
-        <v>3.0356204321760596</v>
+        <v>0.92000796600471124</v>
       </c>
       <c r="E33">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F33">
-        <v>3.0966043318007133</v>
+        <v>0.92685655143002277</v>
       </c>
       <c r="G33">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H33">
-        <v>3.0818814461431754</v>
+        <v>0.93567586295146266</v>
       </c>
     </row>
     <row r="34">
@@ -962,25 +982,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C34">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D34">
-        <v>3.0346294318046318</v>
+        <v>0.9206437825841719</v>
       </c>
       <c r="E34">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F34">
-        <v>3.0977510488438158</v>
+        <v>0.92301041826192065</v>
       </c>
       <c r="G34">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H34">
-        <v>3.0828143568781416</v>
+        <v>0.93189877806808052</v>
       </c>
     </row>
     <row r="35">
@@ -988,25 +1008,25 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C35">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D35">
-        <v>3.0349779483427137</v>
+        <v>0.92086409916545664</v>
       </c>
       <c r="E35">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F35">
-        <v>3.09744211638266</v>
+        <v>0.9265709360486204</v>
       </c>
       <c r="G35">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H35">
-        <v>3.083898074328232</v>
+        <v>0.93741714050564395</v>
       </c>
     </row>
     <row r="36">
@@ -1014,25 +1034,25 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C36">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D36">
-        <v>3.0055460057433483</v>
+        <v>0.92085685742331436</v>
       </c>
       <c r="E36">
-        <v>3.1154072608996382</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F36">
-        <v>3.0928601231910289</v>
+        <v>0.92051828043379569</v>
       </c>
       <c r="G36">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H36">
-        <v>3.0874120917146728</v>
+        <v>0.93283081032360182</v>
       </c>
     </row>
     <row r="37">
@@ -1040,25 +1060,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C37">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D37">
-        <v>2.9992517541968486</v>
+        <v>0.92508835678639911</v>
       </c>
       <c r="E37">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F37">
-        <v>3.1003824440945813</v>
+        <v>0.92050782449671842</v>
       </c>
       <c r="G37">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H37">
-        <v>3.0872338209320858</v>
+        <v>0.93652655113547512</v>
       </c>
     </row>
     <row r="38">
@@ -1066,25 +1086,25 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C38">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D38">
-        <v>2.996452197993221</v>
+        <v>0.92953101456379539</v>
       </c>
       <c r="E38">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F38">
-        <v>3.0864583493599089</v>
+        <v>0.93304614938707942</v>
       </c>
       <c r="G38">
-        <v>3.115295960261399</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H38">
-        <v>3.0876149545116469</v>
+        <v>0.93683027611682079</v>
       </c>
     </row>
     <row r="39">
@@ -1092,25 +1112,25 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C39">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D39">
-        <v>3.0025570802809494</v>
+        <v>0.91921043546030345</v>
       </c>
       <c r="E39">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F39">
-        <v>3.0998958356822852</v>
+        <v>0.93403958434532408</v>
       </c>
       <c r="G39">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H39">
-        <v>3.0865134144764919</v>
+        <v>0.9324391458514234</v>
       </c>
     </row>
     <row r="40">
@@ -1118,25 +1138,25 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C40">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D40">
-        <v>3.0001664058983208</v>
+        <v>0.92526039840282281</v>
       </c>
       <c r="E40">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F40">
-        <v>3.1026165166725668</v>
+        <v>0.93466087704842904</v>
       </c>
       <c r="G40">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H40">
-        <v>3.0862932229186408</v>
+        <v>0.92742524809220339</v>
       </c>
     </row>
     <row r="41">
@@ -1144,25 +1164,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C41">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D41">
-        <v>3.0069715999897153</v>
+        <v>0.92894511832749149</v>
       </c>
       <c r="E41">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F41">
-        <v>3.1015547615688224</v>
+        <v>0.9354591451917601</v>
       </c>
       <c r="G41">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H41">
-        <v>3.0865413685841645</v>
+        <v>0.93236076501120513</v>
       </c>
     </row>
     <row r="42">
@@ -1170,25 +1190,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C42">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D42">
-        <v>3.0050954907393526</v>
+        <v>0.929197396371226</v>
       </c>
       <c r="E42">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F42">
-        <v>3.108920009510304</v>
+        <v>0.93706039655179652</v>
       </c>
       <c r="G42">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H42">
-        <v>3.0866928934501021</v>
+        <v>0.93868097218097357</v>
       </c>
     </row>
     <row r="43">
@@ -1196,25 +1216,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C43">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D43">
-        <v>3.0069179334027663</v>
+        <v>0.92961673840663439</v>
       </c>
       <c r="E43">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F43">
-        <v>3.1083949149051313</v>
+        <v>0.93612854711783511</v>
       </c>
       <c r="G43">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H43">
-        <v>3.0882906343836716</v>
+        <v>0.93910377349550589</v>
       </c>
     </row>
     <row r="44">
@@ -1222,25 +1242,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C44">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D44">
-        <v>3.0030003502480129</v>
+        <v>0.92946952231437807</v>
       </c>
       <c r="E44">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F44">
-        <v>3.1064233938320269</v>
+        <v>0.93642055938142421</v>
       </c>
       <c r="G44">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H44">
-        <v>3.0878413169833645</v>
+        <v>0.93933665556162116</v>
       </c>
     </row>
     <row r="45">
@@ -1248,25 +1268,25 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C45">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D45">
-        <v>3.0035191742672258</v>
+        <v>0.92972048411454067</v>
       </c>
       <c r="E45">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F45">
-        <v>3.1069698452797376</v>
+        <v>0.93570046345491986</v>
       </c>
       <c r="G45">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H45">
-        <v>3.088676227613135</v>
+        <v>0.94079403201145917</v>
       </c>
     </row>
     <row r="46">
@@ -1274,25 +1294,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C46">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D46">
-        <v>3.0025412509215932</v>
+        <v>0.92965705500320373</v>
       </c>
       <c r="E46">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F46">
-        <v>3.1095002071111213</v>
+        <v>0.93627373391616997</v>
       </c>
       <c r="G46">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H46">
-        <v>3.0902039103633339</v>
+        <v>0.94204666559839123</v>
       </c>
     </row>
     <row r="47">
@@ -1300,25 +1320,25 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C47">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D47">
-        <v>3.0056565228468934</v>
+        <v>0.929458244825624</v>
       </c>
       <c r="E47">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F47">
-        <v>3.1101792616410262</v>
+        <v>0.9308967269896562</v>
       </c>
       <c r="G47">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H47">
-        <v>3.0898601680268754</v>
+        <v>0.9441833043126111</v>
       </c>
     </row>
     <row r="48">
@@ -1326,25 +1346,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C48">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D48">
-        <v>3.0009580492397352</v>
+        <v>0.93023997689984983</v>
       </c>
       <c r="E48">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F48">
-        <v>3.1109803011837651</v>
+        <v>0.93164908756367226</v>
       </c>
       <c r="G48">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H48">
-        <v>3.0899085374085047</v>
+        <v>0.94442162053510759</v>
       </c>
     </row>
     <row r="49">
@@ -1352,25 +1372,25 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C49">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D49">
-        <v>3.0043443625876387</v>
+        <v>0.92974412829719144</v>
       </c>
       <c r="E49">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F49">
-        <v>3.1096430988840855</v>
+        <v>0.93202298294449204</v>
       </c>
       <c r="G49">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H49">
-        <v>3.0896694996044793</v>
+        <v>0.93957392816293994</v>
       </c>
     </row>
     <row r="50">
@@ -1378,25 +1398,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C50">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D50">
-        <v>2.981197607713935</v>
+        <v>0.92704562447454597</v>
       </c>
       <c r="E50">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F50">
-        <v>3.1097891162875726</v>
+        <v>0.93902604451897742</v>
       </c>
       <c r="G50">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H50">
-        <v>3.090559681743021</v>
+        <v>0.93648006052989574</v>
       </c>
     </row>
     <row r="51">
@@ -1404,25 +1424,25 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C51">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D51">
-        <v>2.9605626394623186</v>
+        <v>0.92669156418831378</v>
       </c>
       <c r="E51">
-        <v>3.1174298649781069</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F51">
-        <v>3.1086438391833138</v>
+        <v>0.93513448287671141</v>
       </c>
       <c r="G51">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H51">
-        <v>3.0906009798850955</v>
+        <v>0.93630939554123516</v>
       </c>
     </row>
     <row r="52">
@@ -1430,25 +1450,25 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C52">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D52">
-        <v>2.9182978064327956</v>
+        <v>0.92626876509988176</v>
       </c>
       <c r="E52">
-        <v>3.1206116398814165</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F52">
-        <v>3.1078229757540181</v>
+        <v>0.92824297985664339</v>
       </c>
       <c r="G52">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H52">
-        <v>3.0906642189389983</v>
+        <v>0.9324081603125296</v>
       </c>
     </row>
     <row r="53">
@@ -1456,25 +1476,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C53">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D53">
-        <v>2.9038669953595799</v>
+        <v>0.92827866046059115</v>
       </c>
       <c r="E53">
-        <v>3.1206116398814165</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F53">
-        <v>3.1071505754770583</v>
+        <v>0.93206759594544819</v>
       </c>
       <c r="G53">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H53">
-        <v>3.0895158589161871</v>
+        <v>0.93277191724049091</v>
       </c>
     </row>
     <row r="54">
@@ -1482,25 +1502,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C54">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D54">
-        <v>2.9030137974467234</v>
+        <v>0.92693348511713369</v>
       </c>
       <c r="E54">
-        <v>3.1206116398814165</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F54">
-        <v>3.1085221906952261</v>
+        <v>0.92682407391237509</v>
       </c>
       <c r="G54">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H54">
-        <v>3.0886634108356583</v>
+        <v>0.93572785990688456</v>
       </c>
     </row>
     <row r="55">
@@ -1508,25 +1528,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C55">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D55">
-        <v>2.9020312839720384</v>
+        <v>0.92627847426471888</v>
       </c>
       <c r="E55">
-        <v>3.1206116398814165</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F55">
-        <v>3.109651338827375</v>
+        <v>0.92755112287219132</v>
       </c>
       <c r="G55">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H55">
-        <v>3.0902170760526402</v>
+        <v>0.93382957982588677</v>
       </c>
     </row>
     <row r="56">
@@ -1534,25 +1554,25 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C56">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D56">
-        <v>2.9004033177677195</v>
+        <v>0.92813040663179802</v>
       </c>
       <c r="E56">
-        <v>3.1206116398814165</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F56">
-        <v>3.106964961822503</v>
+        <v>0.9217975285135489</v>
       </c>
       <c r="G56">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H56">
-        <v>3.0896821795798677</v>
+        <v>0.93424594515470472</v>
       </c>
     </row>
     <row r="57">
@@ -1560,25 +1580,25 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C57">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D57">
-        <v>2.8998700696159836</v>
+        <v>0.93379794314001374</v>
       </c>
       <c r="E57">
-        <v>3.1206116398814165</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F57">
-        <v>3.1056110664464263</v>
+        <v>0.91912010405419475</v>
       </c>
       <c r="G57">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H57">
-        <v>3.0892953406270123</v>
+        <v>0.93024331028513141</v>
       </c>
     </row>
     <row r="58">
@@ -1586,25 +1606,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C58">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D58">
-        <v>2.8957223822637377</v>
+        <v>0.93096800863127993</v>
       </c>
       <c r="E58">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F58">
-        <v>3.1094194902539334</v>
+        <v>0.91382848355219892</v>
       </c>
       <c r="G58">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H58">
-        <v>3.0890401284933313</v>
+        <v>0.92991817808888433</v>
       </c>
     </row>
     <row r="59">
@@ -1612,25 +1632,25 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C59">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D59">
-        <v>2.9051279231489047</v>
+        <v>0.92836349737138801</v>
       </c>
       <c r="E59">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F59">
-        <v>3.1083746777423755</v>
+        <v>0.92196404128236775</v>
       </c>
       <c r="G59">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H59">
-        <v>3.088552034528151</v>
+        <v>0.92746458838826551</v>
       </c>
     </row>
     <row r="60">
@@ -1638,25 +1658,25 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C60">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D60">
-        <v>2.8966470321279765</v>
+        <v>0.92812114984180127</v>
       </c>
       <c r="E60">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F60">
-        <v>3.1072465987933215</v>
+        <v>0.92265495999096647</v>
       </c>
       <c r="G60">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H60">
-        <v>3.0903504040254588</v>
+        <v>0.93335855158505099</v>
       </c>
     </row>
     <row r="61">
@@ -1664,25 +1684,25 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C61">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D61">
-        <v>2.9045584674613361</v>
+        <v>0.92796943377746399</v>
       </c>
       <c r="E61">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F61">
-        <v>3.1088741350954505</v>
+        <v>0.92398071486508382</v>
       </c>
       <c r="G61">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H61">
-        <v>3.0904218910004242</v>
+        <v>0.93420725023398932</v>
       </c>
     </row>
     <row r="62">
@@ -1690,25 +1710,25 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C62">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D62">
-        <v>2.9112985737368917</v>
+        <v>0.93246956471519082</v>
       </c>
       <c r="E62">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F62">
-        <v>3.1108915786715317</v>
+        <v>0.92878690120293617</v>
       </c>
       <c r="G62">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H62">
-        <v>3.0888979436146276</v>
+        <v>0.93510233504950502</v>
       </c>
     </row>
     <row r="63">
@@ -1716,25 +1736,25 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C63">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D63">
-        <v>2.9074374079088172</v>
+        <v>0.92416441202805277</v>
       </c>
       <c r="E63">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F63">
-        <v>3.1122356057277978</v>
+        <v>0.92773014727999592</v>
       </c>
       <c r="G63">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H63">
-        <v>3.089637629917152</v>
+        <v>0.93166751497910238</v>
       </c>
     </row>
     <row r="64">
@@ -1742,25 +1762,25 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C64">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D64">
-        <v>2.9102650342279905</v>
+        <v>0.9215714725592079</v>
       </c>
       <c r="E64">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F64">
-        <v>3.1118590809902678</v>
+        <v>0.93513107397217554</v>
       </c>
       <c r="G64">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H64">
-        <v>3.0900294898495457</v>
+        <v>0.93041587265616033</v>
       </c>
     </row>
     <row r="65">
@@ -1768,25 +1788,25 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C65">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D65">
-        <v>2.9129754610965581</v>
+        <v>0.91704262047690721</v>
       </c>
       <c r="E65">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F65">
-        <v>3.1114205969984208</v>
+        <v>0.93082209604271515</v>
       </c>
       <c r="G65">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H65">
-        <v>3.0905248120405684</v>
+        <v>0.92624429270668751</v>
       </c>
     </row>
     <row r="66">
@@ -1794,25 +1814,25 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C66">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D66">
-        <v>2.9155074389651987</v>
+        <v>0.92223366935660001</v>
       </c>
       <c r="E66">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F66">
-        <v>3.112149605334023</v>
+        <v>0.93277525795196015</v>
       </c>
       <c r="G66">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H66">
-        <v>3.089719885062312</v>
+        <v>0.9251959017035134</v>
       </c>
     </row>
     <row r="67">
@@ -1820,25 +1840,25 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C67">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D67">
-        <v>2.916230524405655</v>
+        <v>0.92479208283332237</v>
       </c>
       <c r="E67">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F67">
-        <v>3.11078620354394</v>
+        <v>0.93179606991258213</v>
       </c>
       <c r="G67">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H67">
-        <v>3.0881151157301874</v>
+        <v>0.93152974709451475</v>
       </c>
     </row>
     <row r="68">
@@ -1846,25 +1866,25 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C68">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D68">
-        <v>2.9163415271822788</v>
+        <v>0.92501899638408891</v>
       </c>
       <c r="E68">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F68">
-        <v>3.1068840463237795</v>
+        <v>0.93336180264642377</v>
       </c>
       <c r="G68">
-        <v>3.1181477630150485</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H68">
-        <v>3.0887274536971274</v>
+        <v>0.93013348529182183</v>
       </c>
     </row>
     <row r="69">
@@ -1872,25 +1892,25 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C69">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D69">
-        <v>2.9168908935305313</v>
+        <v>0.92641051500306848</v>
       </c>
       <c r="E69">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F69">
-        <v>3.1110635291621422</v>
+        <v>0.92950059009013741</v>
       </c>
       <c r="G69">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H69">
-        <v>3.0900165936345987</v>
+        <v>0.93318457839434554</v>
       </c>
     </row>
     <row r="70">
@@ -1898,25 +1918,25 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C70">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D70">
-        <v>2.9200113734553987</v>
+        <v>0.92616228073153561</v>
       </c>
       <c r="E70">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F70">
-        <v>3.0914663237706774</v>
+        <v>0.926397941490118</v>
       </c>
       <c r="G70">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H70">
-        <v>3.0904321471369669</v>
+        <v>0.9289824171591009</v>
       </c>
     </row>
     <row r="71">
@@ -1924,25 +1944,25 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C71">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D71">
-        <v>2.9222049504897605</v>
+        <v>0.92639754087221193</v>
       </c>
       <c r="E71">
-        <v>3.1207903329940549</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F71">
-        <v>3.0779717447367028</v>
+        <v>0.92882222147796645</v>
       </c>
       <c r="G71">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H71">
-        <v>3.0892913910576025</v>
+        <v>0.92917897039041419</v>
       </c>
     </row>
     <row r="72">
@@ -1950,25 +1970,25 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C72">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D72">
-        <v>2.9170708313516558</v>
+        <v>0.92625433864587781</v>
       </c>
       <c r="E72">
-        <v>3.1222519170340326</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F72">
-        <v>3.0866658900473158</v>
+        <v>0.92715925114755893</v>
       </c>
       <c r="G72">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H72">
-        <v>3.0923396892763497</v>
+        <v>0.93051912120848546</v>
       </c>
     </row>
     <row r="73">
@@ -1976,25 +1996,25 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C73">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D73">
-        <v>2.9188481352432349</v>
+        <v>0.9227868667633885</v>
       </c>
       <c r="E73">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F73">
-        <v>3.0799930682845966</v>
+        <v>0.92787634494719828</v>
       </c>
       <c r="G73">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H73">
-        <v>3.0896386154573876</v>
+        <v>0.92595498858174352</v>
       </c>
     </row>
     <row r="74">
@@ -2002,25 +2022,25 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C74">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D74">
-        <v>2.9205442543597684</v>
+        <v>0.92512198108917532</v>
       </c>
       <c r="E74">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F74">
-        <v>3.0993630067419291</v>
+        <v>0.93186942182732357</v>
       </c>
       <c r="G74">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H74">
-        <v>3.0889864554838966</v>
+        <v>0.92804247250696337</v>
       </c>
     </row>
     <row r="75">
@@ -2028,25 +2048,25 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C75">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D75">
-        <v>2.9110094384338576</v>
+        <v>0.92656090182836781</v>
       </c>
       <c r="E75">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F75">
-        <v>3.0922832934941384</v>
+        <v>0.9296526705654502</v>
       </c>
       <c r="G75">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H75">
-        <v>3.0911509092964362</v>
+        <v>0.92587442517663465</v>
       </c>
     </row>
     <row r="76">
@@ -2054,25 +2074,25 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C76">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D76">
-        <v>2.9153682103270286</v>
+        <v>0.92787520081365504</v>
       </c>
       <c r="E76">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F76">
-        <v>3.0909566209870407</v>
+        <v>0.92624447570331758</v>
       </c>
       <c r="G76">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H76">
-        <v>3.0918033968710028</v>
+        <v>0.92752784180167991</v>
       </c>
     </row>
     <row r="77">
@@ -2080,25 +2100,25 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C77">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D77">
-        <v>2.9216722591289943</v>
+        <v>0.92878260937994195</v>
       </c>
       <c r="E77">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F77">
-        <v>3.0887946391013088</v>
+        <v>0.92346232593523814</v>
       </c>
       <c r="G77">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H77">
-        <v>3.0842068950548116</v>
+        <v>0.93234371536360205</v>
       </c>
     </row>
     <row r="78">
@@ -2106,25 +2126,25 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C78">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D78">
-        <v>2.9152177098543723</v>
+        <v>0.92909641336330906</v>
       </c>
       <c r="E78">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F78">
-        <v>3.1003119242898891</v>
+        <v>0.92632876338764936</v>
       </c>
       <c r="G78">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H78">
-        <v>3.0920059941311346</v>
+        <v>0.92508862679165871</v>
       </c>
     </row>
     <row r="79">
@@ -2132,25 +2152,25 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C79">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D79">
-        <v>2.9017872624317729</v>
+        <v>0.92893855092035793</v>
       </c>
       <c r="E79">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F79">
-        <v>3.0960307974251471</v>
+        <v>0.92232953615555957</v>
       </c>
       <c r="G79">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H79">
-        <v>3.0944502795826589</v>
+        <v>0.92819802970702225</v>
       </c>
     </row>
     <row r="80">
@@ -2158,25 +2178,25 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C80">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D80">
-        <v>2.8982457879166943</v>
+        <v>0.92905871891668756</v>
       </c>
       <c r="E80">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F80">
-        <v>3.0909145781779466</v>
+        <v>0.92495513195097712</v>
       </c>
       <c r="G80">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H80">
-        <v>3.0971174744722365</v>
+        <v>0.93172096940413685</v>
       </c>
     </row>
     <row r="81">
@@ -2184,25 +2204,25 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C81">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D81">
-        <v>2.8961036222938459</v>
+        <v>0.93445538309392362</v>
       </c>
       <c r="E81">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F81">
-        <v>3.0873008177622356</v>
+        <v>0.9283249074854466</v>
       </c>
       <c r="G81">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H81">
-        <v>3.1001916658660029</v>
+        <v>0.9339723568407815</v>
       </c>
     </row>
     <row r="82">
@@ -2210,25 +2230,25 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C82">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D82">
-        <v>2.8990997262044389</v>
+        <v>0.93631101396647853</v>
       </c>
       <c r="E82">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F82">
-        <v>3.0843004308980899</v>
+        <v>0.92664247841574765</v>
       </c>
       <c r="G82">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H82">
-        <v>3.0670766784508943</v>
+        <v>0.9300343100716435</v>
       </c>
     </row>
     <row r="83">
@@ -2236,25 +2256,25 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C83">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D83">
-        <v>2.9026671972430353</v>
+        <v>0.9333645647313733</v>
       </c>
       <c r="E83">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F83">
-        <v>3.0756068188535917</v>
+        <v>0.92686328304820509</v>
       </c>
       <c r="G83">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H83">
-        <v>3.0836245734078194</v>
+        <v>0.92706319472545029</v>
       </c>
     </row>
     <row r="84">
@@ -2262,25 +2282,25 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C84">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D84">
-        <v>2.9016435251698294</v>
+        <v>0.93233380717949965</v>
       </c>
       <c r="E84">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F84">
-        <v>3.0744526505692407</v>
+        <v>0.92917954715509654</v>
       </c>
       <c r="G84">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H84">
-        <v>3.0963155281171297</v>
+        <v>0.92872729224787642</v>
       </c>
     </row>
     <row r="85">
@@ -2288,25 +2308,25 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C85">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D85">
-        <v>2.9020546415393738</v>
+        <v>0.93095625714063446</v>
       </c>
       <c r="E85">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F85">
-        <v>3.0783015359084329</v>
+        <v>0.9326607404029591</v>
       </c>
       <c r="G85">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H85">
-        <v>3.0977398689497568</v>
+        <v>0.92595525240548626</v>
       </c>
     </row>
     <row r="86">
@@ -2314,25 +2334,25 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C86">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D86">
-        <v>2.9017330196379696</v>
+        <v>0.93521765577170501</v>
       </c>
       <c r="E86">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F86">
-        <v>3.0798497767346062</v>
+        <v>0.93402159407686158</v>
       </c>
       <c r="G86">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H86">
-        <v>3.0883747883779979</v>
+        <v>0.93145495546297985</v>
       </c>
     </row>
     <row r="87">
@@ -2340,25 +2360,25 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C87">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D87">
-        <v>2.9102010307595783</v>
+        <v>0.9325664594186992</v>
       </c>
       <c r="E87">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F87">
-        <v>3.0824800993162706</v>
+        <v>0.93380918802356849</v>
       </c>
       <c r="G87">
-        <v>3.1287000825230527</v>
+        <v>0.95555193205587441</v>
       </c>
       <c r="H87">
-        <v>3.0858517950408935</v>
+        <v>0.92621166565545821</v>
       </c>
     </row>
     <row r="88">
@@ -2366,25 +2386,25 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C88">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D88">
-        <v>2.9083361774682901</v>
+        <v>0.93132714214500401</v>
       </c>
       <c r="E88">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F88">
-        <v>3.0833127320170637</v>
+        <v>0.93372651353946923</v>
       </c>
       <c r="G88">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H88">
-        <v>3.0856099330039708</v>
+        <v>0.91954764154893498</v>
       </c>
     </row>
     <row r="89">
@@ -2392,25 +2412,25 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C89">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D89">
-        <v>2.9169395728349046</v>
+        <v>0.93056395175031303</v>
       </c>
       <c r="E89">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F89">
-        <v>3.0836033825425475</v>
+        <v>0.93614063653042079</v>
       </c>
       <c r="G89">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H89">
-        <v>3.0750037213969232</v>
+        <v>0.92257225075501481</v>
       </c>
     </row>
     <row r="90">
@@ -2418,25 +2438,25 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C90">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D90">
-        <v>2.9202543181160037</v>
+        <v>0.93024865674121382</v>
       </c>
       <c r="E90">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F90">
-        <v>3.0830532268591186</v>
+        <v>0.92891059450356128</v>
       </c>
       <c r="G90">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H90">
-        <v>3.0596427067999734</v>
+        <v>0.91978511364067272</v>
       </c>
     </row>
     <row r="91">
@@ -2444,25 +2464,25 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C91">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D91">
-        <v>2.9236907665338219</v>
+        <v>0.92980619987087654</v>
       </c>
       <c r="E91">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F91">
-        <v>3.0832215206170486</v>
+        <v>0.9343191248584507</v>
       </c>
       <c r="G91">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H91">
-        <v>3.07931936075973</v>
+        <v>0.92462266509492053</v>
       </c>
     </row>
     <row r="92">
@@ -2470,25 +2490,25 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C92">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D92">
-        <v>2.9227870891192338</v>
+        <v>0.93243726933253102</v>
       </c>
       <c r="E92">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F92">
-        <v>3.0825303125820822</v>
+        <v>0.93448141633707793</v>
       </c>
       <c r="G92">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H92">
-        <v>3.0690808288397045</v>
+        <v>0.92491570034781534</v>
       </c>
     </row>
     <row r="93">
@@ -2496,25 +2516,25 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C93">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D93">
-        <v>2.9237507138900805</v>
+        <v>0.93211311562455379</v>
       </c>
       <c r="E93">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F93">
-        <v>3.0821128046375348</v>
+        <v>0.93444480331201685</v>
       </c>
       <c r="G93">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H93">
-        <v>3.0937436259662792</v>
+        <v>0.92858934857785613</v>
       </c>
     </row>
     <row r="94">
@@ -2522,25 +2542,25 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C94">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D94">
-        <v>2.9243914364713794</v>
+        <v>0.93496510396026922</v>
       </c>
       <c r="E94">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F94">
-        <v>3.08286147256787</v>
+        <v>0.93448056128998269</v>
       </c>
       <c r="G94">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H94">
-        <v>3.1042981297278192</v>
+        <v>0.9280879482200689</v>
       </c>
     </row>
     <row r="95">
@@ -2548,25 +2568,25 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C95">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D95">
-        <v>2.9214289370477955</v>
+        <v>0.93667448178884327</v>
       </c>
       <c r="E95">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F95">
-        <v>3.0600107763460782</v>
+        <v>0.93368526032756849</v>
       </c>
       <c r="G95">
-        <v>3.1287000825230527</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H95">
-        <v>3.113776590117487</v>
+        <v>0.92742535504833457</v>
       </c>
     </row>
     <row r="96">
@@ -2574,25 +2594,25 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C96">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D96">
-        <v>2.9239201707870195</v>
+        <v>0.93084780676444778</v>
       </c>
       <c r="E96">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F96">
-        <v>3.0471746817002572</v>
+        <v>0.93280958707511052</v>
       </c>
       <c r="G96">
-        <v>3.129059344476421</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H96">
-        <v>3.1212591409114361</v>
+        <v>0.929131966545645</v>
       </c>
     </row>
     <row r="97">
@@ -2600,25 +2620,25 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C97">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D97">
-        <v>2.9218371925274864</v>
+        <v>0.92739605430908323</v>
       </c>
       <c r="E97">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F97">
-        <v>3.0666934830333945</v>
+        <v>0.93677211262818194</v>
       </c>
       <c r="G97">
-        <v>3.129059344476421</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H97">
-        <v>3.1239277925347166</v>
+        <v>0.92978838454652601</v>
       </c>
     </row>
     <row r="98">
@@ -2626,25 +2646,25 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C98">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D98">
-        <v>2.9212938055655142</v>
+        <v>0.93234782682786899</v>
       </c>
       <c r="E98">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F98">
-        <v>3.0520697782616173</v>
+        <v>0.93883133603435154</v>
       </c>
       <c r="G98">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H98">
-        <v>3.1259941166946832</v>
+        <v>0.93006453921646015</v>
       </c>
     </row>
     <row r="99">
@@ -2652,25 +2672,25 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C99">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D99">
-        <v>2.9049471076488529</v>
+        <v>0.93726098185888662</v>
       </c>
       <c r="E99">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F99">
-        <v>3.0653391211567333</v>
+        <v>0.93398626195920198</v>
       </c>
       <c r="G99">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H99">
-        <v>3.1259925195485483</v>
+        <v>0.93044555816566143</v>
       </c>
     </row>
     <row r="100">
@@ -2678,25 +2698,25 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C100">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D100">
-        <v>2.8981126888800399</v>
+        <v>0.92869421319319301</v>
       </c>
       <c r="E100">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F100">
-        <v>3.0601069899664708</v>
+        <v>0.93483760504378199</v>
       </c>
       <c r="G100">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H100">
-        <v>3.1220694759926189</v>
+        <v>0.92935363597025644</v>
       </c>
     </row>
     <row r="101">
@@ -2704,25 +2724,25 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C101">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D101">
-        <v>2.8936421953000768</v>
+        <v>0.92541957172244305</v>
       </c>
       <c r="E101">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F101">
-        <v>3.0546621711986655</v>
+        <v>0.93804392883069965</v>
       </c>
       <c r="G101">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H101">
-        <v>3.1233911333210802</v>
+        <v>0.92362847375785817</v>
       </c>
     </row>
     <row r="102">
@@ -2730,25 +2750,25 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C102">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D102">
-        <v>2.8954548004235807</v>
+        <v>0.92248370493032961</v>
       </c>
       <c r="E102">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F102">
-        <v>3.071845641610313</v>
+        <v>0.93695472759845555</v>
       </c>
       <c r="G102">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H102">
-        <v>3.1240805398024043</v>
+        <v>0.92484032274279304</v>
       </c>
     </row>
     <row r="103">
@@ -2756,25 +2776,25 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C103">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D103">
-        <v>2.8955157189093446</v>
+        <v>0.92120350826796626</v>
       </c>
       <c r="E103">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F103">
-        <v>3.0666775875453935</v>
+        <v>0.93701243593898542</v>
       </c>
       <c r="G103">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H103">
-        <v>3.1246999350762654</v>
+        <v>0.92868729313082388</v>
       </c>
     </row>
     <row r="104">
@@ -2782,25 +2802,25 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C104">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D104">
-        <v>2.893153439391718</v>
+        <v>0.91994573557331805</v>
       </c>
       <c r="E104">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F104">
-        <v>3.076595207906573</v>
+        <v>0.9415802337038095</v>
       </c>
       <c r="G104">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H104">
-        <v>3.126264220486624</v>
+        <v>0.93028727438021941</v>
       </c>
     </row>
     <row r="105">
@@ -2808,25 +2828,25 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C105">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D105">
-        <v>2.8899194305204525</v>
+        <v>0.91923873725148741</v>
       </c>
       <c r="E105">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F105">
-        <v>3.0831735122882034</v>
+        <v>0.93621083140601102</v>
       </c>
       <c r="G105">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H105">
-        <v>3.1251664475774135</v>
+        <v>0.93176733140867585</v>
       </c>
     </row>
     <row r="106">
@@ -2834,25 +2854,25 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C106">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D106">
-        <v>2.8927742647929291</v>
+        <v>0.92261150299906292</v>
       </c>
       <c r="E106">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F106">
-        <v>3.0885806632308945</v>
+        <v>0.93663398127379194</v>
       </c>
       <c r="G106">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H106">
-        <v>3.1236952685233028</v>
+        <v>0.93553022681581466</v>
       </c>
     </row>
     <row r="107">
@@ -2860,25 +2880,25 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C107">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D107">
-        <v>2.8910124588223511</v>
+        <v>0.92463312215733184</v>
       </c>
       <c r="E107">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F107">
-        <v>3.0922331622062784</v>
+        <v>0.93745668418767136</v>
       </c>
       <c r="G107">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H107">
-        <v>3.125798276067707</v>
+        <v>0.93586226222474322</v>
       </c>
     </row>
     <row r="108">
@@ -2886,25 +2906,25 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C108">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D108">
-        <v>2.8921636544711129</v>
+        <v>0.92583131972577004</v>
       </c>
       <c r="E108">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F108">
-        <v>3.091304790385117</v>
+        <v>0.93655377903443848</v>
       </c>
       <c r="G108">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H108">
-        <v>3.1215408150818758</v>
+        <v>0.93477701924061518</v>
       </c>
     </row>
     <row r="109">
@@ -2912,25 +2932,25 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C109">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D109">
-        <v>2.8914174666181576</v>
+        <v>0.92569040844645689</v>
       </c>
       <c r="E109">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F109">
-        <v>3.0931909236202078</v>
+        <v>0.93832460058874423</v>
       </c>
       <c r="G109">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H109">
-        <v>3.0699407630433648</v>
+        <v>0.92998603890901266</v>
       </c>
     </row>
     <row r="110">
@@ -2938,25 +2958,25 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C110">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D110">
-        <v>2.8885647786472295</v>
+        <v>0.92616198145572948</v>
       </c>
       <c r="E110">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F110">
-        <v>3.0909544634580488</v>
+        <v>0.93955480629266475</v>
       </c>
       <c r="G110">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H110">
-        <v>3.0611607887958643</v>
+        <v>0.9324930447902543</v>
       </c>
     </row>
     <row r="111">
@@ -2964,25 +2984,25 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C111">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D111">
-        <v>2.8913320469816268</v>
+        <v>0.92511980671940885</v>
       </c>
       <c r="E111">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F111">
-        <v>3.0945183183040847</v>
+        <v>0.94119937484456362</v>
       </c>
       <c r="G111">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H111">
-        <v>3.0753161818937662</v>
+        <v>0.92840791175657245</v>
       </c>
     </row>
     <row r="112">
@@ -2990,25 +3010,25 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C112">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D112">
-        <v>2.8900298751436195</v>
+        <v>0.92363702344250542</v>
       </c>
       <c r="E112">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F112">
-        <v>3.0684384720913171</v>
+        <v>0.94203437350149388</v>
       </c>
       <c r="G112">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H112">
-        <v>3.0866121932873636</v>
+        <v>0.92403886596885443</v>
       </c>
     </row>
     <row r="113">
@@ -3016,25 +3036,25 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C113">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D113">
-        <v>2.9082514689436891</v>
+        <v>0.92292138543161206</v>
       </c>
       <c r="E113">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F113">
-        <v>3.0831326907778349</v>
+        <v>0.94326438443560978</v>
       </c>
       <c r="G113">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H113">
-        <v>3.0867908049184551</v>
+        <v>0.92535778159785054</v>
       </c>
     </row>
     <row r="114">
@@ -3042,25 +3062,25 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C114">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D114">
-        <v>2.9135394375971271</v>
+        <v>0.92268536280887192</v>
       </c>
       <c r="E114">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F114">
-        <v>3.0617887344667372</v>
+        <v>0.93990379877753838</v>
       </c>
       <c r="G114">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H114">
-        <v>3.0879295041278736</v>
+        <v>0.9301057173756665</v>
       </c>
     </row>
     <row r="115">
@@ -3068,25 +3088,25 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C115">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D115">
-        <v>2.9104457984129732</v>
+        <v>0.91745564598952012</v>
       </c>
       <c r="E115">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F115">
-        <v>3.08662487325316</v>
+        <v>0.94223092285766941</v>
       </c>
       <c r="G115">
-        <v>3.1292390063948439</v>
+        <v>0.95698148723702769</v>
       </c>
       <c r="H115">
-        <v>3.0845075735134095</v>
+        <v>0.92675963024361574</v>
       </c>
     </row>
     <row r="116">
@@ -3094,25 +3114,25 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C116">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D116">
-        <v>2.8910838386354474</v>
+        <v>0.91467045055810037</v>
       </c>
       <c r="E116">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F116">
-        <v>3.0932606111343217</v>
+        <v>0.94410190915255299</v>
       </c>
       <c r="G116">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H116">
-        <v>3.0900121397729912</v>
+        <v>0.93140304409632069</v>
       </c>
     </row>
     <row r="117">
@@ -3120,25 +3140,25 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C117">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D117">
-        <v>2.9018112459450607</v>
+        <v>0.91366089841133713</v>
       </c>
       <c r="E117">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F117">
-        <v>3.0976755225686725</v>
+        <v>0.93663578605641762</v>
       </c>
       <c r="G117">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H117">
-        <v>3.0687631194520941</v>
+        <v>0.92679351678470723</v>
       </c>
     </row>
     <row r="118">
@@ -3146,25 +3166,25 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C118">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D118">
-        <v>2.8939293007063149</v>
+        <v>0.91240446877432246</v>
       </c>
       <c r="E118">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F118">
-        <v>3.0964890941856336</v>
+        <v>0.93897208164362322</v>
       </c>
       <c r="G118">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H118">
-        <v>3.0554624165524884</v>
+        <v>0.92255401216365174</v>
       </c>
     </row>
     <row r="119">
@@ -3172,25 +3192,25 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C119">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D119">
-        <v>2.8924546842544054</v>
+        <v>0.91222788761411866</v>
       </c>
       <c r="E119">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F119">
-        <v>3.0968077509110721</v>
+        <v>0.93625520813716789</v>
       </c>
       <c r="G119">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H119">
-        <v>3.0618254098616133</v>
+        <v>0.92058183823451079</v>
       </c>
     </row>
     <row r="120">
@@ -3198,25 +3218,25 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C120">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D120">
-        <v>2.891193196088683</v>
+        <v>0.91291697784619019</v>
       </c>
       <c r="E120">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F120">
-        <v>3.0952192524603546</v>
+        <v>0.93470041743517551</v>
       </c>
       <c r="G120">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H120">
-        <v>3.061893510891875</v>
+        <v>0.92366915839621266</v>
       </c>
     </row>
     <row r="121">
@@ -3224,25 +3244,25 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C121">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D121">
-        <v>2.8917491295996389</v>
+        <v>0.91569065982668918</v>
       </c>
       <c r="E121">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F121">
-        <v>3.0952351229628552</v>
+        <v>0.93132886803049786</v>
       </c>
       <c r="G121">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H121">
-        <v>3.0630973303493811</v>
+        <v>0.92816122569001014</v>
       </c>
     </row>
     <row r="122">
@@ -3250,25 +3270,25 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C122">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D122">
-        <v>2.8824483860145125</v>
+        <v>0.92320813841099092</v>
       </c>
       <c r="E122">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F122">
-        <v>3.0960230031609215</v>
+        <v>0.93078562888241323</v>
       </c>
       <c r="G122">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H122">
-        <v>3.0385621204675193</v>
+        <v>0.92547061833802435</v>
       </c>
     </row>
     <row r="123">
@@ -3276,25 +3296,25 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C123">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D123">
-        <v>2.8741861327636129</v>
+        <v>0.92580975805474452</v>
       </c>
       <c r="E123">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F123">
-        <v>3.0964008819671442</v>
+        <v>0.92901911607608156</v>
       </c>
       <c r="G123">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H123">
-        <v>3.0428866502047565</v>
+        <v>0.92378922357647175</v>
       </c>
     </row>
     <row r="124">
@@ -3302,25 +3322,25 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C124">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D124">
-        <v>2.8727673238691991</v>
+        <v>0.92574901432061496</v>
       </c>
       <c r="E124">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F124">
-        <v>3.0789697614408609</v>
+        <v>0.9290074657857913</v>
       </c>
       <c r="G124">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H124">
-        <v>3.0410294363178223</v>
+        <v>0.92595183455477881</v>
       </c>
     </row>
     <row r="125">
@@ -3328,25 +3348,25 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C125">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D125">
-        <v>2.8988049274050036</v>
+        <v>0.9269328657924355</v>
       </c>
       <c r="E125">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F125">
-        <v>3.0911424664335758</v>
+        <v>0.93044003888763793</v>
       </c>
       <c r="G125">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H125">
-        <v>3.0421539286701034</v>
+        <v>0.92480986178480362</v>
       </c>
     </row>
     <row r="126">
@@ -3354,25 +3374,25 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C126">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D126">
-        <v>2.9114062597479426</v>
+        <v>0.92762783422204009</v>
       </c>
       <c r="E126">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F126">
-        <v>3.0950548140090479</v>
+        <v>0.92990128394833826</v>
       </c>
       <c r="G126">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H126">
-        <v>3.0426611900585048</v>
+        <v>0.92412971084591755</v>
       </c>
     </row>
     <row r="127">
@@ -3380,25 +3400,25 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C127">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D127">
-        <v>2.9209965027487654</v>
+        <v>0.92731312441898428</v>
       </c>
       <c r="E127">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F127">
-        <v>3.0946485869101075</v>
+        <v>0.92526030333074161</v>
       </c>
       <c r="G127">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H127">
-        <v>3.0428332604603927</v>
+        <v>0.9273333430975037</v>
       </c>
     </row>
     <row r="128">
@@ -3406,25 +3426,25 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C128">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D128">
-        <v>2.9301071060655755</v>
+        <v>0.92694007989619498</v>
       </c>
       <c r="E128">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F128">
-        <v>3.0938089541785807</v>
+        <v>0.92863014311505698</v>
       </c>
       <c r="G128">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H128">
-        <v>3.0422460697471996</v>
+        <v>0.92184409755055219</v>
       </c>
     </row>
     <row r="129">
@@ -3432,25 +3452,25 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C129">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D129">
-        <v>2.9254560864015935</v>
+        <v>0.92784895114419252</v>
       </c>
       <c r="E129">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F129">
-        <v>3.0671464591862216</v>
+        <v>0.93140953672034343</v>
       </c>
       <c r="G129">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H129">
-        <v>3.0404692310017158</v>
+        <v>0.9216645470149164</v>
       </c>
     </row>
     <row r="130">
@@ -3458,25 +3478,25 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C130">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D130">
-        <v>2.9214919807015218</v>
+        <v>0.92864585005642497</v>
       </c>
       <c r="E130">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F130">
-        <v>3.0342117804235458</v>
+        <v>0.93072807044009875</v>
       </c>
       <c r="G130">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H130">
-        <v>3.0540857836527784</v>
+        <v>0.92327810718396353</v>
       </c>
     </row>
     <row r="131">
@@ -3484,25 +3504,25 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C131">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D131">
-        <v>2.9155993658189434</v>
+        <v>0.93028568588998395</v>
       </c>
       <c r="E131">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F131">
-        <v>3.0424874963162138</v>
+        <v>0.93089797060041124</v>
       </c>
       <c r="G131">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H131">
-        <v>3.0609809845475091</v>
+        <v>0.92276100563702712</v>
       </c>
     </row>
     <row r="132">
@@ -3510,25 +3530,25 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C132">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D132">
-        <v>2.9129066278393601</v>
+        <v>0.93094493659588873</v>
       </c>
       <c r="E132">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F132">
-        <v>3.0489835010878079</v>
+        <v>0.9270388179064345</v>
       </c>
       <c r="G132">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H132">
-        <v>3.0629148994382223</v>
+        <v>0.92776463145378618</v>
       </c>
     </row>
     <row r="133">
@@ -3536,25 +3556,25 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C133">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D133">
-        <v>2.9140839805745946</v>
+        <v>0.9256155567365103</v>
       </c>
       <c r="E133">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F133">
-        <v>3.0524390906349725</v>
+        <v>0.9323588607944554</v>
       </c>
       <c r="G133">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H133">
-        <v>3.0633384260511951</v>
+        <v>0.92760854024705963</v>
       </c>
     </row>
     <row r="134">
@@ -3562,25 +3582,25 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C134">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D134">
-        <v>2.9195448547723948</v>
+        <v>0.92827387306718212</v>
       </c>
       <c r="E134">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F134">
-        <v>3.0700203217414672</v>
+        <v>0.93409169638209688</v>
       </c>
       <c r="G134">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H134">
-        <v>3.0616677430386416</v>
+        <v>0.92600646936051012</v>
       </c>
     </row>
     <row r="135">
@@ -3588,25 +3608,25 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C135">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D135">
-        <v>2.9222884421936528</v>
+        <v>0.92361196681426305</v>
       </c>
       <c r="E135">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F135">
-        <v>3.0735414151217295</v>
+        <v>0.93742030235561769</v>
       </c>
       <c r="G135">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H135">
-        <v>3.0636332898367029</v>
+        <v>0.92554283856530395</v>
       </c>
     </row>
     <row r="136">
@@ -3614,25 +3634,25 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C136">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D136">
-        <v>2.9223646235669407</v>
+        <v>0.92300248953097797</v>
       </c>
       <c r="E136">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F136">
-        <v>3.0770248245790777</v>
+        <v>0.93365918893425925</v>
       </c>
       <c r="G136">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H136">
-        <v>3.0635830137166358</v>
+        <v>0.92159486406921776</v>
       </c>
     </row>
     <row r="137">
@@ -3640,25 +3660,25 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C137">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D137">
-        <v>2.9221200472806586</v>
+        <v>0.92507013595464915</v>
       </c>
       <c r="E137">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F137">
-        <v>3.0794915057943473</v>
+        <v>0.92988993275128695</v>
       </c>
       <c r="G137">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H137">
-        <v>3.0630365769795729</v>
+        <v>0.92839022788065906</v>
       </c>
     </row>
     <row r="138">
@@ -3666,25 +3686,25 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C138">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D138">
-        <v>2.9207635445621554</v>
+        <v>0.92613827670765236</v>
       </c>
       <c r="E138">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F138">
-        <v>3.0798340477087187</v>
+        <v>0.93199444295480138</v>
       </c>
       <c r="G138">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H138">
-        <v>3.0634633035873002</v>
+        <v>0.93236717226855181</v>
       </c>
     </row>
     <row r="139">
@@ -3692,25 +3712,25 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C139">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D139">
-        <v>2.9212020175733482</v>
+        <v>0.93004108539624464</v>
       </c>
       <c r="E139">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F139">
-        <v>3.0694286450464334</v>
+        <v>0.93652135984231544</v>
       </c>
       <c r="G139">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H139">
-        <v>3.0623493631691998</v>
+        <v>0.93163397485735155</v>
       </c>
     </row>
     <row r="140">
@@ -3718,25 +3738,25 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C140">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D140">
-        <v>2.9228844779455092</v>
+        <v>0.9313971334788238</v>
       </c>
       <c r="E140">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F140">
-        <v>3.0544596206291579</v>
+        <v>0.93535773246720832</v>
       </c>
       <c r="G140">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H140">
-        <v>3.0624241272070236</v>
+        <v>0.93162024509081465</v>
       </c>
     </row>
     <row r="141">
@@ -3744,25 +3764,25 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C141">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D141">
-        <v>2.9256601602130776</v>
+        <v>0.93108112641521235</v>
       </c>
       <c r="E141">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F141">
-        <v>3.0447775421525658</v>
+        <v>0.93397667718574473</v>
       </c>
       <c r="G141">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H141">
-        <v>3.0627393303583466</v>
+        <v>0.934161292208743</v>
       </c>
     </row>
     <row r="142">
@@ -3770,25 +3790,25 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C142">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D142">
-        <v>2.9205396259848313</v>
+        <v>0.93174505027976307</v>
       </c>
       <c r="E142">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F142">
-        <v>3.0575631382968145</v>
+        <v>0.93463049085147376</v>
       </c>
       <c r="G142">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H142">
-        <v>3.0638628458876536</v>
+        <v>0.93657965973381563</v>
       </c>
     </row>
     <row r="143">
@@ -3796,25 +3816,25 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C143">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D143">
-        <v>2.9199547286429288</v>
+        <v>0.93193274114709768</v>
       </c>
       <c r="E143">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F143">
-        <v>3.0515811541848858</v>
+        <v>0.9352094711840615</v>
       </c>
       <c r="G143">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H143">
-        <v>3.0632563678037887</v>
+        <v>0.93509419595077148</v>
       </c>
     </row>
     <row r="144">
@@ -3822,25 +3842,25 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C144">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D144">
-        <v>2.9225940540686781</v>
+        <v>0.93113807411765404</v>
       </c>
       <c r="E144">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F144">
-        <v>3.0627025281796181</v>
+        <v>0.93464836918574012</v>
       </c>
       <c r="G144">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H144">
-        <v>3.0637852529858076</v>
+        <v>0.93584288170896601</v>
       </c>
     </row>
     <row r="145">
@@ -3848,25 +3868,25 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C145">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D145">
-        <v>2.8746254352294343</v>
+        <v>0.9323248369205086</v>
       </c>
       <c r="E145">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F145">
-        <v>3.0572595971780605</v>
+        <v>0.93143999972707503</v>
       </c>
       <c r="G145">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H145">
-        <v>3.0633038942466486</v>
+        <v>0.92950583070549897</v>
       </c>
     </row>
     <row r="146">
@@ -3874,25 +3894,25 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C146">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D146">
-        <v>2.8520528106406497</v>
+        <v>0.9328992338272184</v>
       </c>
       <c r="E146">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F146">
-        <v>3.0561082886918252</v>
+        <v>0.93316674342442274</v>
       </c>
       <c r="G146">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H146">
-        <v>3.0634682960745532</v>
+        <v>0.92700501269665436</v>
       </c>
     </row>
     <row r="147">
@@ -3900,25 +3920,25 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C147">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D147">
-        <v>2.8409267298754615</v>
+        <v>0.93355384768261118</v>
       </c>
       <c r="E147">
-        <v>3.1241535765109512</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F147">
-        <v>3.0720700832999444</v>
+        <v>0.92853226029218194</v>
       </c>
       <c r="G147">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H147">
-        <v>3.0635351526153545</v>
+        <v>0.93041617523425568</v>
       </c>
     </row>
     <row r="148">
@@ -3926,25 +3946,25 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C148">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D148">
-        <v>2.837308901810081</v>
+        <v>0.93338560661425862</v>
       </c>
       <c r="E148">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F148">
-        <v>3.058534525278179</v>
+        <v>0.9293966116440282</v>
       </c>
       <c r="G148">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H148">
-        <v>3.0632084268975222</v>
+        <v>0.92747722905862928</v>
       </c>
     </row>
     <row r="149">
@@ -3952,25 +3972,25 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C149">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D149">
-        <v>2.8324385980118336</v>
+        <v>0.93374210987644535</v>
       </c>
       <c r="E149">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F149">
-        <v>3.0468995852989789</v>
+        <v>0.92488050333800365</v>
       </c>
       <c r="G149">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H149">
-        <v>3.0618106698208827</v>
+        <v>0.9276105605886904</v>
       </c>
     </row>
     <row r="150">
@@ -3978,25 +3998,25 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C150">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D150">
-        <v>2.8315981293465033</v>
+        <v>0.92886161544986545</v>
       </c>
       <c r="E150">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F150">
-        <v>3.0395388030700645</v>
+        <v>0.92731873604347714</v>
       </c>
       <c r="G150">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H150">
-        <v>3.0628344224059765</v>
+        <v>0.93272653091557745</v>
       </c>
     </row>
     <row r="151">
@@ -4004,25 +4024,25 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C151">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D151">
-        <v>2.8851087389114638</v>
+        <v>0.93174603651608867</v>
       </c>
       <c r="E151">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F151">
-        <v>3.0265156465755076</v>
+        <v>0.93301280745816784</v>
       </c>
       <c r="G151">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H151">
-        <v>3.0581417144322685</v>
+        <v>0.9336913167264792</v>
       </c>
     </row>
     <row r="152">
@@ -4030,25 +4050,25 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C152">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D152">
-        <v>2.8048838760308685</v>
+        <v>0.93445240587837286</v>
       </c>
       <c r="E152">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F152">
-        <v>3.0746269868502076</v>
+        <v>0.93419275992101292</v>
       </c>
       <c r="G152">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H152">
-        <v>3.0545091700325369</v>
+        <v>0.93606023938509209</v>
       </c>
     </row>
     <row r="153">
@@ -4056,25 +4076,25 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C153">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D153">
-        <v>2.8764348226197929</v>
+        <v>0.92461576775619336</v>
       </c>
       <c r="E153">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F153">
-        <v>3.0458763962309514</v>
+        <v>0.93204005509356624</v>
       </c>
       <c r="G153">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H153">
-        <v>3.0576888911774089</v>
+        <v>0.93745067888872868</v>
       </c>
     </row>
     <row r="154">
@@ -4082,25 +4102,25 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C154">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D154">
-        <v>2.9039717181433478</v>
+        <v>0.93323255567151209</v>
       </c>
       <c r="E154">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F154">
-        <v>3.0421966976449961</v>
+        <v>0.93120808693881263</v>
       </c>
       <c r="G154">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H154">
-        <v>3.0650845619293934</v>
+        <v>0.92977334287076163</v>
       </c>
     </row>
     <row r="155">
@@ -4108,25 +4128,25 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C155">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D155">
-        <v>2.9078169267102409</v>
+        <v>0.92482650685765055</v>
       </c>
       <c r="E155">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F155">
-        <v>3.0421908876240678</v>
+        <v>0.93473583258907478</v>
       </c>
       <c r="G155">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H155">
-        <v>3.0663162211131301</v>
+        <v>0.93079415243576202</v>
       </c>
     </row>
     <row r="156">
@@ -4134,25 +4154,25 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C156">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D156">
-        <v>2.9145506634859562</v>
+        <v>0.92559561713187277</v>
       </c>
       <c r="E156">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F156">
-        <v>3.0524971571687654</v>
+        <v>0.93558962555356318</v>
       </c>
       <c r="G156">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H156">
-        <v>3.0646135438528703</v>
+        <v>0.93010027653765637</v>
       </c>
     </row>
     <row r="157">
@@ -4160,25 +4180,25 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C157">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D157">
-        <v>2.9180523549411403</v>
+        <v>0.92805251189630211</v>
       </c>
       <c r="E157">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F157">
-        <v>3.0558896824883988</v>
+        <v>0.93597956097155954</v>
       </c>
       <c r="G157">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H157">
-        <v>3.0656711385630193</v>
+        <v>0.93083146037582054</v>
       </c>
     </row>
     <row r="158">
@@ -4186,25 +4206,25 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C158">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D158">
-        <v>2.9184106533354806</v>
+        <v>0.92766273206919925</v>
       </c>
       <c r="E158">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F158">
-        <v>3.0601975321538442</v>
+        <v>0.93353249469155619</v>
       </c>
       <c r="G158">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H158">
-        <v>3.0640140344156039</v>
+        <v>0.93012501006177306</v>
       </c>
     </row>
     <row r="159">
@@ -4212,25 +4232,25 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C159">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D159">
-        <v>2.9292758420381517</v>
+        <v>0.9281969195655384</v>
       </c>
       <c r="E159">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F159">
-        <v>3.0605046543861749</v>
+        <v>0.93294200146410988</v>
       </c>
       <c r="G159">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H159">
-        <v>3.0650217429659539</v>
+        <v>0.9372385606674275</v>
       </c>
     </row>
     <row r="160">
@@ -4238,25 +4258,25 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C160">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D160">
-        <v>2.9363862308303421</v>
+        <v>0.92614648409428479</v>
       </c>
       <c r="E160">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F160">
-        <v>3.0532142041877588</v>
+        <v>0.93338000561729617</v>
       </c>
       <c r="G160">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H160">
-        <v>3.0646596122703</v>
+        <v>0.94092688964183513</v>
       </c>
     </row>
     <row r="161">
@@ -4264,25 +4284,25 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C161">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D161">
-        <v>2.9026898615631271</v>
+        <v>0.92371903511721742</v>
       </c>
       <c r="E161">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F161">
-        <v>3.0365218258043645</v>
+        <v>0.93542689101460152</v>
       </c>
       <c r="G161">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H161">
-        <v>3.0648973884155675</v>
+        <v>0.93342359616876369</v>
       </c>
     </row>
     <row r="162">
@@ -4290,25 +4310,25 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C162">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D162">
-        <v>2.8834873032066821</v>
+        <v>0.92278277098696149</v>
       </c>
       <c r="E162">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F162">
-        <v>3.0619032198533485</v>
+        <v>0.9295932082930346</v>
       </c>
       <c r="G162">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H162">
-        <v>3.0666621110059946</v>
+        <v>0.93160154386450733</v>
       </c>
     </row>
     <row r="163">
@@ -4316,25 +4336,25 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C163">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D163">
-        <v>2.8748413877935555</v>
+        <v>0.9219073587357377</v>
       </c>
       <c r="E163">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F163">
-        <v>3.0610850358179027</v>
+        <v>0.93671824836673212</v>
       </c>
       <c r="G163">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H163">
-        <v>3.0660530592598803</v>
+        <v>0.93084906369770992</v>
       </c>
     </row>
     <row r="164">
@@ -4342,25 +4362,25 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C164">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D164">
-        <v>2.8716809699258157</v>
+        <v>0.92151134271662483</v>
       </c>
       <c r="E164">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F164">
-        <v>3.0648631576508008</v>
+        <v>0.9404422300648545</v>
       </c>
       <c r="G164">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H164">
-        <v>3.0699418322141336</v>
+        <v>0.92864261337358078</v>
       </c>
     </row>
     <row r="165">
@@ -4368,25 +4388,25 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C165">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D165">
-        <v>2.8719515103757818</v>
+        <v>0.92143839560097573</v>
       </c>
       <c r="E165">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F165">
-        <v>3.0692426169810312</v>
+        <v>0.94073738535591778</v>
       </c>
       <c r="G165">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H165">
-        <v>3.0697489810641549</v>
+        <v>0.92086732820346828</v>
       </c>
     </row>
     <row r="166">
@@ -4394,25 +4414,25 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C166">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D166">
-        <v>2.8702579991200832</v>
+        <v>0.92167496626750722</v>
       </c>
       <c r="E166">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F166">
-        <v>3.0675352568661491</v>
+        <v>0.94258002870463342</v>
       </c>
       <c r="G166">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H166">
-        <v>3.0776335022590433</v>
+        <v>0.91927758947691629</v>
       </c>
     </row>
     <row r="167">
@@ -4420,25 +4440,25 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C167">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D167">
-        <v>2.8688429160196098</v>
+        <v>0.92136739662147416</v>
       </c>
       <c r="E167">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F167">
-        <v>3.0697682021794601</v>
+        <v>0.94370136785637948</v>
       </c>
       <c r="G167">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H167">
-        <v>3.0801288644830089</v>
+        <v>0.9254801177112717</v>
       </c>
     </row>
     <row r="168">
@@ -4446,25 +4466,25 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C168">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D168">
-        <v>2.8700438349475839</v>
+        <v>0.92192577451684476</v>
       </c>
       <c r="E168">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F168">
-        <v>3.0713386412584947</v>
+        <v>0.94441817496214087</v>
       </c>
       <c r="G168">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H168">
-        <v>3.0804779488735283</v>
+        <v>0.92185436625032591</v>
       </c>
     </row>
     <row r="169">
@@ -4472,25 +4492,25 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C169">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D169">
-        <v>2.8736972628493072</v>
+        <v>0.92180529947804857</v>
       </c>
       <c r="E169">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F169">
-        <v>3.0725835230208323</v>
+        <v>0.94620191965060707</v>
       </c>
       <c r="G169">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H169">
-        <v>3.0812349730271427</v>
+        <v>0.92780362224024981</v>
       </c>
     </row>
     <row r="170">
@@ -4498,25 +4518,25 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C170">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D170">
-        <v>2.8720416482236084</v>
+        <v>0.92120335778246398</v>
       </c>
       <c r="E170">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F170">
-        <v>3.0725966954657422</v>
+        <v>0.94204954952734421</v>
       </c>
       <c r="G170">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H170">
-        <v>3.080851693814608</v>
+        <v>0.92823796148926252</v>
       </c>
     </row>
     <row r="171">
@@ -4524,25 +4544,25 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C171">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D171">
-        <v>2.9161644156643041</v>
+        <v>0.92147075362442254</v>
       </c>
       <c r="E171">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F171">
-        <v>3.0744311686061612</v>
+        <v>0.94462399488612558</v>
       </c>
       <c r="G171">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H171">
-        <v>3.0791973399542449</v>
+        <v>0.92786564473603017</v>
       </c>
     </row>
     <row r="172">
@@ -4550,25 +4570,25 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C172">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D172">
-        <v>2.9382367683763575</v>
+        <v>0.9216767676344827</v>
       </c>
       <c r="E172">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F172">
-        <v>3.0736220859174193</v>
+        <v>0.94644234740370525</v>
       </c>
       <c r="G172">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H172">
-        <v>3.080913702894811</v>
+        <v>0.92385914555218451</v>
       </c>
     </row>
     <row r="173">
@@ -4576,25 +4596,25 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C173">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D173">
-        <v>2.9511251164235723</v>
+        <v>0.92127907085456029</v>
       </c>
       <c r="E173">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F173">
-        <v>3.0730218711009405</v>
+        <v>0.94503242131996945</v>
       </c>
       <c r="G173">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H173">
-        <v>3.0822211682652041</v>
+        <v>0.92276246723494892</v>
       </c>
     </row>
     <row r="174">
@@ -4602,25 +4622,25 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C174">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D174">
-        <v>2.9080945048347475</v>
+        <v>0.92151154708596739</v>
       </c>
       <c r="E174">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F174">
-        <v>3.0712721407040693</v>
+        <v>0.93927241746017276</v>
       </c>
       <c r="G174">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H174">
-        <v>3.0618014722660662</v>
+        <v>0.92323688418948935</v>
       </c>
     </row>
     <row r="175">
@@ -4628,25 +4648,25 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C175">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D175">
-        <v>2.9494563748109179</v>
+        <v>0.92156479853886952</v>
       </c>
       <c r="E175">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F175">
-        <v>3.0721476395495095</v>
+        <v>0.93619556048772223</v>
       </c>
       <c r="G175">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H175">
-        <v>3.073189536082424</v>
+        <v>0.92689221264623811</v>
       </c>
     </row>
     <row r="176">
@@ -4654,25 +4674,25 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C176">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D176">
-        <v>2.9734070407758781</v>
+        <v>0.91646341762971661</v>
       </c>
       <c r="E176">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F176">
-        <v>3.0681927798950754</v>
+        <v>0.93376662854519754</v>
       </c>
       <c r="G176">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H176">
-        <v>3.0575467016027744</v>
+        <v>0.92901181533238431</v>
       </c>
     </row>
     <row r="177">
@@ -4680,25 +4700,25 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C177">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D177">
-        <v>2.9918539639477344</v>
+        <v>0.91480871481149184</v>
       </c>
       <c r="E177">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F177">
-        <v>3.0654987392954691</v>
+        <v>0.9355105947699538</v>
       </c>
       <c r="G177">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H177">
-        <v>3.0412952204793395</v>
+        <v>0.92824385290926714</v>
       </c>
     </row>
     <row r="178">
@@ -4706,25 +4726,25 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C178">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D178">
-        <v>2.9990385846928183</v>
+        <v>0.9137564059309663</v>
       </c>
       <c r="E178">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F178">
-        <v>3.0652823777445382</v>
+        <v>0.93511414773169665</v>
       </c>
       <c r="G178">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H178">
-        <v>3.0655864803716839</v>
+        <v>0.9344957724272337</v>
       </c>
     </row>
     <row r="179">
@@ -4732,25 +4752,25 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C179">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D179">
-        <v>2.9963049051147896</v>
+        <v>0.91251830328962569</v>
       </c>
       <c r="E179">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F179">
-        <v>3.0656364454768816</v>
+        <v>0.93325154751616224</v>
       </c>
       <c r="G179">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H179">
-        <v>3.0332304830452124</v>
+        <v>0.9377513259974104</v>
       </c>
     </row>
     <row r="180">
@@ -4758,25 +4778,25 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C180">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D180">
-        <v>2.9859031008513535</v>
+        <v>0.91176333014342759</v>
       </c>
       <c r="E180">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F180">
-        <v>3.0643031722583585</v>
+        <v>0.93804121492200077</v>
       </c>
       <c r="G180">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H180">
-        <v>3.0408200666740095</v>
+        <v>0.93886599473570531</v>
       </c>
     </row>
     <row r="181">
@@ -4784,25 +4804,25 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C181">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D181">
-        <v>2.9984793174337052</v>
+        <v>0.91187809928186525</v>
       </c>
       <c r="E181">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F181">
-        <v>3.0635740687960293</v>
+        <v>0.93944933118995533</v>
       </c>
       <c r="G181">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H181">
-        <v>3.0526217106528191</v>
+        <v>0.93738055742312509</v>
       </c>
     </row>
     <row r="182">
@@ -4810,25 +4830,25 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C182">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D182">
-        <v>3.0110322188171597</v>
+        <v>0.91245486151985544</v>
       </c>
       <c r="E182">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F182">
-        <v>3.0638605719564866</v>
+        <v>0.93368380872046486</v>
       </c>
       <c r="G182">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H182">
-        <v>3.0565093822032932</v>
+        <v>0.93777784666011799</v>
       </c>
     </row>
     <row r="183">
@@ -4836,25 +4856,25 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C183">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D183">
-        <v>3.0078688636145898</v>
+        <v>0.91154466288605829</v>
       </c>
       <c r="E183">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F183">
-        <v>3.0636050890282061</v>
+        <v>0.93250961438567559</v>
       </c>
       <c r="G183">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H183">
-        <v>3.0571769749229145</v>
+        <v>0.9419686703763509</v>
       </c>
     </row>
     <row r="184">
@@ -4862,25 +4882,25 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C184">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D184">
-        <v>3.0196500482058393</v>
+        <v>0.91167750102460843</v>
       </c>
       <c r="E184">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F184">
-        <v>3.0630991298144692</v>
+        <v>0.92884584698024919</v>
       </c>
       <c r="G184">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H184">
-        <v>3.0579625208146859</v>
+        <v>0.94317109175300684</v>
       </c>
     </row>
     <row r="185">
@@ -4888,25 +4908,25 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C185">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D185">
-        <v>3.029657480634754</v>
+        <v>0.91174026157541943</v>
       </c>
       <c r="E185">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F185">
-        <v>3.0630468674065003</v>
+        <v>0.93020661157601547</v>
       </c>
       <c r="G185">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H185">
-        <v>3.0451660635157123</v>
+        <v>0.93802746663105563</v>
       </c>
     </row>
     <row r="186">
@@ -4914,25 +4934,25 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C186">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D186">
-        <v>2.9854240312938134</v>
+        <v>0.91176852659993946</v>
       </c>
       <c r="E186">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F186">
-        <v>3.0615128532070366</v>
+        <v>0.93307611241577737</v>
       </c>
       <c r="G186">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H186">
-        <v>3.0442816269209385</v>
+        <v>0.9386441185117298</v>
       </c>
     </row>
     <row r="187">
@@ -4940,25 +4960,25 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C187">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D187">
-        <v>2.9558463266791337</v>
+        <v>0.91142481701730571</v>
       </c>
       <c r="E187">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F187">
-        <v>3.0636987152599944</v>
+        <v>0.93263177913353434</v>
       </c>
       <c r="G187">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H187">
-        <v>3.0633093923318055</v>
+        <v>0.9353890599415462</v>
       </c>
     </row>
     <row r="188">
@@ -4966,25 +4986,25 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C188">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D188">
-        <v>2.9376543314070638</v>
+        <v>0.9118619806588345</v>
       </c>
       <c r="E188">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F188">
-        <v>3.0641584617358721</v>
+        <v>0.93402454669317581</v>
       </c>
       <c r="G188">
-        <v>3.1292390063948439</v>
+        <v>0.9570634133534931</v>
       </c>
       <c r="H188">
-        <v>3.0704481214997528</v>
+        <v>0.94079174822520428</v>
       </c>
     </row>
     <row r="189">
@@ -4992,25 +5012,25 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C189">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D189">
-        <v>2.9345753276101272</v>
+        <v>0.91798408970205125</v>
       </c>
       <c r="E189">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F189">
-        <v>3.0652591530360822</v>
+        <v>0.93925366632387719</v>
       </c>
       <c r="G189">
-        <v>3.1292390063948439</v>
+        <v>0.95784178035545586</v>
       </c>
       <c r="H189">
-        <v>3.0749670365488093</v>
+        <v>0.94026090983130117</v>
       </c>
     </row>
     <row r="190">
@@ -5018,25 +5038,25 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C190">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D190">
-        <v>2.9334919661557013</v>
+        <v>0.91484794126200508</v>
       </c>
       <c r="E190">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F190">
-        <v>3.0652053589718751</v>
+        <v>0.93903400695505823</v>
       </c>
       <c r="G190">
-        <v>3.1292390063948439</v>
+        <v>0.95784178035545586</v>
       </c>
       <c r="H190">
-        <v>3.0771229282805352</v>
+        <v>0.9380857133580871</v>
       </c>
     </row>
     <row r="191">
@@ -5044,25 +5064,25 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C191">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D191">
-        <v>2.9283375871334356</v>
+        <v>0.91360450316950181</v>
       </c>
       <c r="E191">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F191">
-        <v>3.0655920415654605</v>
+        <v>0.93969998493124662</v>
       </c>
       <c r="G191">
-        <v>3.1292390063948439</v>
+        <v>0.95784178035545586</v>
       </c>
       <c r="H191">
-        <v>3.0777470119589192</v>
+        <v>0.93936586338714168</v>
       </c>
     </row>
     <row r="192">
@@ -5070,25 +5090,25 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C192">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D192">
-        <v>2.9252905181752764</v>
+        <v>0.91339714523106197</v>
       </c>
       <c r="E192">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F192">
-        <v>3.0653253475217634</v>
+        <v>0.9406776528525157</v>
       </c>
       <c r="G192">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H192">
-        <v>3.0703060322359597</v>
+        <v>0.93884726465436141</v>
       </c>
     </row>
     <row r="193">
@@ -5096,25 +5116,25 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C193">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D193">
-        <v>2.9666083918115693</v>
+        <v>0.90884783435318695</v>
       </c>
       <c r="E193">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F193">
-        <v>3.0652973783760133</v>
+        <v>0.93433291682986852</v>
       </c>
       <c r="G193">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H193">
-        <v>3.0656365762354354</v>
+        <v>0.93898030916296438</v>
       </c>
     </row>
     <row r="194">
@@ -5122,25 +5142,25 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C194">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D194">
-        <v>2.9471188618346513</v>
+        <v>0.90746224936156961</v>
       </c>
       <c r="E194">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F194">
-        <v>3.0650060195657578</v>
+        <v>0.93182254127246178</v>
       </c>
       <c r="G194">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H194">
-        <v>3.0667621004392123</v>
+        <v>0.93754793847489637</v>
       </c>
     </row>
     <row r="195">
@@ -5148,25 +5168,25 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C195">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D195">
-        <v>2.9414996690219408</v>
+        <v>0.90184623915725592</v>
       </c>
       <c r="E195">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F195">
-        <v>3.0654672418642166</v>
+        <v>0.93227648684492381</v>
       </c>
       <c r="G195">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H195">
-        <v>3.0623353908833058</v>
+        <v>0.93963584048143933</v>
       </c>
     </row>
     <row r="196">
@@ -5174,25 +5194,25 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C196">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D196">
-        <v>2.9384011763818307</v>
+        <v>0.90586884719624994</v>
       </c>
       <c r="E196">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F196">
-        <v>3.0847612721833895</v>
+        <v>0.92599525848202235</v>
       </c>
       <c r="G196">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H196">
-        <v>3.0713265249373092</v>
+        <v>0.9434020162081399</v>
       </c>
     </row>
     <row r="197">
@@ -5200,25 +5220,25 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C197">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D197">
-        <v>2.9362262989837959</v>
+        <v>0.90490050062566607</v>
       </c>
       <c r="E197">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F197">
-        <v>3.0900045700568102</v>
+        <v>0.9293254040252964</v>
       </c>
       <c r="G197">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H197">
-        <v>3.0643709640364607</v>
+        <v>0.93798502956023455</v>
       </c>
     </row>
     <row r="198">
@@ -5226,25 +5246,25 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C198">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D198">
-        <v>2.938209910370865</v>
+        <v>0.90522279121893268</v>
       </c>
       <c r="E198">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F198">
-        <v>3.0778362612896064</v>
+        <v>0.93157569284717001</v>
       </c>
       <c r="G198">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H198">
-        <v>3.0621696259980871</v>
+        <v>0.93484964253784453</v>
       </c>
     </row>
     <row r="199">
@@ -5252,25 +5272,25 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C199">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D199">
-        <v>2.9384762870765915</v>
+        <v>0.9063703896117572</v>
       </c>
       <c r="E199">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F199">
-        <v>3.0520984906482069</v>
+        <v>0.93212426080508659</v>
       </c>
       <c r="G199">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H199">
-        <v>3.0837740260197561</v>
+        <v>0.93531054805735936</v>
       </c>
     </row>
     <row r="200">
@@ -5278,25 +5298,25 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C200">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D200">
-        <v>2.9425518864860307</v>
+        <v>0.9066053663029584</v>
       </c>
       <c r="E200">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F200">
-        <v>3.043094294067235</v>
+        <v>0.93009577554569101</v>
       </c>
       <c r="G200">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H200">
-        <v>3.0720560330107669</v>
+        <v>0.93020072096251549</v>
       </c>
     </row>
     <row r="201">
@@ -5304,25 +5324,25 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>2.6758053192063906</v>
+        <v>0.95551549403438374</v>
       </c>
       <c r="C201">
-        <v>3.1141478020259101</v>
+        <v>0.95519521035326438</v>
       </c>
       <c r="D201">
-        <v>2.9419909176348074</v>
+        <v>0.90859757419562426</v>
       </c>
       <c r="E201">
-        <v>3.124511795032026</v>
+        <v>0.95644490307001262</v>
       </c>
       <c r="F201">
-        <v>3.0901279441021625</v>
+        <v>0.92858347752234149</v>
       </c>
       <c r="G201">
-        <v>3.1292390063948439</v>
+        <v>0.96029488982157896</v>
       </c>
       <c r="H201">
-        <v>3.0638671737797529</v>
+        <v>0.93512745081848048</v>
       </c>
     </row>
   </sheetData>
